--- a/Compare outputs.xlsx
+++ b/Compare outputs.xlsx
@@ -225,6 +225,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -235,9 +238,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -530,34 +530,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>8.2000000000000003E-2</c:v>
+                  <c:v>5.0999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.7000000000000002E-2</c:v>
+                  <c:v>4.3999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.1999999999999998E-2</c:v>
+                  <c:v>4.4999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.3999999999999999E-2</c:v>
+                  <c:v>4.4999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.3999999999999999E-2</c:v>
+                  <c:v>4.3999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.6000000000000001E-2</c:v>
+                  <c:v>4.4999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0999999999999997E-2</c:v>
+                  <c:v>4.8000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.5E-2</c:v>
+                  <c:v>4.5999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.2999999999999999E-2</c:v>
+                  <c:v>4.3999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.3999999999999999E-2</c:v>
+                  <c:v>4.3999999999999997E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -710,34 +710,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.1999999999999999E-2</c:v>
+                  <c:v>1.4E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7999999999999999E-2</c:v>
+                  <c:v>1.7000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7000000000000001E-2</c:v>
+                  <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7000000000000001E-2</c:v>
+                  <c:v>1.2999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6E-2</c:v>
+                  <c:v>1.2999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.1000000000000001E-2</c:v>
+                  <c:v>1.4E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6E-2</c:v>
+                  <c:v>1.4E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.4999999999999999E-2</c:v>
+                  <c:v>1.4E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.7000000000000001E-2</c:v>
+                  <c:v>1.4E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.6E-2</c:v>
+                  <c:v>1.2999999999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1343,19 +1343,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>5.7000000000000002E-2</c:v>
+                  <c:v>4.5999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.5999999999999997E-2</c:v>
+                  <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.8000000000000001E-2</c:v>
+                  <c:v>1.7999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.9000000000000001E-2</c:v>
+                  <c:v>1.2999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6999999999999998E-2</c:v>
+                  <c:v>1.0999999999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1535,19 +1535,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.7999999999999999E-2</c:v>
+                  <c:v>1.4E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4999999999999999E-2</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7000000000000001E-2</c:v>
+                  <c:v>8.0000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4E-2</c:v>
+                  <c:v>6.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.5999999999999997E-2</c:v>
+                  <c:v>7.0000000000000001E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1695,7 +1695,7 @@
         <c:axId val="2014622464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.1"/>
+          <c:max val="6.0000000000000012E-2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2096,19 +2096,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.27200000000000002</c:v>
+                  <c:v>0.219</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.17399999999999999</c:v>
+                  <c:v>0.126</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.14899999999999999</c:v>
+                  <c:v>9.2999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.151</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.189</c:v>
+                  <c:v>5.3999999999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2240,19 +2240,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>8.7999999999999995E-2</c:v>
+                  <c:v>6.8000000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.9000000000000001E-2</c:v>
+                  <c:v>4.5999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.2000000000000003E-2</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.122</c:v>
+                  <c:v>3.3000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.17599999999999999</c:v>
+                  <c:v>2.8000000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2801,19 +2801,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.3069999999999999</c:v>
+                  <c:v>1.944</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.474</c:v>
+                  <c:v>1.1739999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.381</c:v>
+                  <c:v>0.91</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3009999999999999</c:v>
+                  <c:v>0.628</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6639999999999999</c:v>
+                  <c:v>0.49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2945,19 +2945,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.78200000000000003</c:v>
+                  <c:v>0.65900000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.71499999999999997</c:v>
+                  <c:v>0.45700000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.75</c:v>
+                  <c:v>0.38700000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0509999999999999</c:v>
+                  <c:v>0.33300000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.57</c:v>
+                  <c:v>0.29299999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3105,8 +3105,8 @@
         <c:axId val="2014622464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="3"/>
-          <c:min val="0.5"/>
+          <c:max val="2.5"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5966,8 +5966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W10" workbookViewId="0">
-      <selection activeCell="AF27" sqref="AF27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5976,72 +5976,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="25" t="s">
+      <c r="F1" s="25"/>
+      <c r="G1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="24"/>
-      <c r="I1" s="25" t="s">
+      <c r="H1" s="25"/>
+      <c r="I1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="24"/>
-      <c r="K1" s="26" t="s">
+      <c r="J1" s="25"/>
+      <c r="K1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="26"/>
+      <c r="L1" s="22"/>
       <c r="N1" t="s">
         <v>7</v>
       </c>
-      <c r="V1" s="23" t="s">
+      <c r="V1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="24"/>
-      <c r="X1" s="25" t="s">
+      <c r="W1" s="25"/>
+      <c r="X1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="25" t="s">
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="25" t="s">
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="26" t="s">
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="AE1" s="26"/>
+      <c r="AE1" s="22"/>
       <c r="AG1" t="s">
         <v>10</v>
       </c>
-      <c r="AN1" s="23" t="s">
+      <c r="AN1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="AO1" s="24"/>
-      <c r="AP1" s="25" t="s">
+      <c r="AO1" s="25"/>
+      <c r="AP1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="AQ1" s="24"/>
-      <c r="AR1" s="25" t="s">
+      <c r="AQ1" s="25"/>
+      <c r="AR1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="AS1" s="24"/>
-      <c r="AT1" s="25" t="s">
+      <c r="AS1" s="25"/>
+      <c r="AT1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="AU1" s="24"/>
-      <c r="AV1" s="26" t="s">
+      <c r="AU1" s="25"/>
+      <c r="AV1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="AW1" s="26"/>
+      <c r="AW1" s="22"/>
       <c r="AY1" t="s">
         <v>12</v>
       </c>
@@ -6152,100 +6152,100 @@
         <v>1</v>
       </c>
       <c r="C3" s="14">
-        <v>8.2000000000000003E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="D3" s="15">
-        <v>2.1999999999999999E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="E3" s="18">
-        <v>3.9E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="F3" s="19">
+        <v>1.2E-2</v>
+      </c>
+      <c r="G3" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="H3" s="19">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="I3" s="18">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="J3" s="19">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="K3" s="10">
         <v>1.4E-2</v>
       </c>
-      <c r="G3" s="18">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="H3" s="19">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="I3" s="18">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="J3" s="19">
-        <v>3.1E-2</v>
-      </c>
-      <c r="K3" s="10">
-        <v>3.6999999999999998E-2</v>
-      </c>
       <c r="L3" s="10">
-        <v>3.4000000000000002E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="U3" s="11">
         <v>1</v>
       </c>
       <c r="V3" s="14">
-        <v>0.27800000000000002</v>
+        <v>0.23599999999999999</v>
       </c>
       <c r="W3" s="15">
-        <v>9.8000000000000004E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="X3" s="18">
-        <v>0.16500000000000001</v>
+        <v>0.13900000000000001</v>
       </c>
       <c r="Y3" s="19">
-        <v>8.1000000000000003E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="Z3" s="18">
-        <v>0.16200000000000001</v>
+        <v>0.113</v>
       </c>
       <c r="AA3" s="19">
-        <v>8.5999999999999993E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="AB3" s="18">
-        <v>0.158</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="AC3" s="19">
-        <v>0.126</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="AD3" s="10">
-        <v>0.20100000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AE3" s="10">
-        <v>0.17799999999999999</v>
+        <v>0.03</v>
       </c>
       <c r="AM3" s="11">
         <v>1</v>
       </c>
       <c r="AN3" s="14">
-        <v>2.31</v>
+        <v>1.9630000000000001</v>
       </c>
       <c r="AO3" s="15">
-        <v>0.76400000000000001</v>
+        <v>0.65200000000000002</v>
       </c>
       <c r="AP3" s="18">
-        <v>1.5289999999999999</v>
+        <v>1.1259999999999999</v>
       </c>
       <c r="AQ3" s="19">
-        <v>0.72099999999999997</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="AR3" s="18">
-        <v>1.3109999999999999</v>
+        <v>0.85599999999999998</v>
       </c>
       <c r="AS3" s="19">
-        <v>0.77600000000000002</v>
+        <v>0.40600000000000003</v>
       </c>
       <c r="AT3" s="18">
-        <v>1.2789999999999999</v>
+        <v>0.59599999999999997</v>
       </c>
       <c r="AU3" s="19">
-        <v>1.06</v>
+        <v>0.29799999999999999</v>
       </c>
       <c r="AV3" s="10">
-        <v>1.6659999999999999</v>
+        <v>0.50800000000000001</v>
       </c>
       <c r="AW3" s="10">
-        <v>1.716</v>
+        <v>0.27600000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:51" x14ac:dyDescent="0.25">
@@ -6253,101 +6253,101 @@
         <v>2</v>
       </c>
       <c r="C4" s="14">
-        <v>5.7000000000000002E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="D4" s="15">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="E4" s="18">
+        <v>2.4E-2</v>
+      </c>
+      <c r="F4" s="19">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="G4" s="18">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="E4" s="18">
-        <v>0.04</v>
-      </c>
-      <c r="F4" s="19">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="G4" s="18">
-        <v>0.03</v>
-      </c>
       <c r="H4" s="19">
-        <v>1.6E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="I4" s="18">
-        <v>2.9000000000000001E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="J4" s="19">
-        <v>2.5000000000000001E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="K4" s="10">
-        <v>3.9E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="L4" s="10">
-        <v>3.9E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="S4" s="21"/>
       <c r="U4" s="11">
         <v>2</v>
       </c>
       <c r="V4" s="14">
-        <v>0.248</v>
+        <v>0.221</v>
       </c>
       <c r="W4" s="15">
-        <v>9.0999999999999998E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="X4" s="18">
-        <v>0.192</v>
+        <v>0.121</v>
       </c>
       <c r="Y4" s="19">
-        <v>7.6999999999999999E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="Z4" s="18">
-        <v>0.155</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="AA4" s="19">
-        <v>8.4000000000000005E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="AB4" s="18">
-        <v>0.14399999999999999</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="AC4" s="19">
-        <v>0.13700000000000001</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="AD4" s="10">
-        <v>0.214</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="AE4" s="10">
-        <v>0.185</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AM4" s="11">
         <v>2</v>
       </c>
       <c r="AN4" s="14">
-        <v>2.2869999999999999</v>
+        <v>1.9450000000000001</v>
       </c>
       <c r="AO4" s="15">
-        <v>0.83899999999999997</v>
+        <v>0.64600000000000002</v>
       </c>
       <c r="AP4" s="18">
-        <v>1.4770000000000001</v>
+        <v>1.196</v>
       </c>
       <c r="AQ4" s="19">
-        <v>0.71199999999999997</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="AR4" s="18">
-        <v>1.3049999999999999</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="AS4" s="19">
-        <v>0.755</v>
+        <v>0.379</v>
       </c>
       <c r="AT4" s="18">
-        <v>1.351</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="AU4" s="19">
-        <v>1.0409999999999999</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="AV4" s="10">
-        <v>1.7350000000000001</v>
+        <v>0.505</v>
       </c>
       <c r="AW4" s="10">
-        <v>1.5049999999999999</v>
+        <v>0.30599999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.25">
@@ -6355,100 +6355,100 @@
         <v>3</v>
       </c>
       <c r="C5" s="14">
-        <v>5.1999999999999998E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="D5" s="15">
-        <v>1.7000000000000001E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="E5" s="18">
-        <v>0.03</v>
+        <v>2.7E-2</v>
       </c>
       <c r="F5" s="19">
-        <v>1.4E-2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="G5" s="18">
-        <v>2.8000000000000001E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="H5" s="19">
-        <v>1.6E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="I5" s="18">
-        <v>2.7E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="J5" s="19">
-        <v>2.3E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="K5" s="10">
-        <v>3.5000000000000003E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="L5" s="10">
-        <v>3.5999999999999997E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="U5" s="11">
         <v>3</v>
       </c>
       <c r="V5" s="14">
-        <v>0.38700000000000001</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="W5" s="15">
-        <v>8.5999999999999993E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="X5" s="18">
-        <v>0.184</v>
+        <v>0.123</v>
       </c>
       <c r="Y5" s="19">
-        <v>8.5000000000000006E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z5" s="18">
-        <v>0.13700000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="AA5" s="19">
-        <v>7.9000000000000001E-2</v>
+        <v>0.04</v>
       </c>
       <c r="AB5" s="18">
-        <v>0.153</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="AC5" s="19">
-        <v>0.127</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="AD5" s="10">
-        <v>0.185</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="AE5" s="10">
-        <v>0.17299999999999999</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="AM5" s="11">
         <v>3</v>
       </c>
       <c r="AN5" s="14">
-        <v>2.2959999999999998</v>
+        <v>1.964</v>
       </c>
       <c r="AO5" s="15">
-        <v>0.754</v>
+        <v>0.65600000000000003</v>
       </c>
       <c r="AP5" s="18">
-        <v>1.474</v>
+        <v>1.1319999999999999</v>
       </c>
       <c r="AQ5" s="19">
-        <v>0.77</v>
+        <v>0.434</v>
       </c>
       <c r="AR5" s="18">
-        <v>1.347</v>
+        <v>1.02</v>
       </c>
       <c r="AS5" s="19">
-        <v>0.76</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="AT5" s="18">
-        <v>1.262</v>
+        <v>0.61799999999999999</v>
       </c>
       <c r="AU5" s="19">
-        <v>1.07</v>
+        <v>0.316</v>
       </c>
       <c r="AV5" s="10">
-        <v>1.5920000000000001</v>
+        <v>0.51300000000000001</v>
       </c>
       <c r="AW5" s="10">
-        <v>1.476</v>
+        <v>0.252</v>
       </c>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.25">
@@ -6456,100 +6456,100 @@
         <v>4</v>
       </c>
       <c r="C6" s="14">
-        <v>5.3999999999999999E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="D6" s="15">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E6" s="18">
+        <v>2.4E-2</v>
+      </c>
+      <c r="F6" s="19">
+        <v>0.01</v>
+      </c>
+      <c r="G6" s="18">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="E6" s="18">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="F6" s="19">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="G6" s="18">
-        <v>2.7E-2</v>
-      </c>
       <c r="H6" s="19">
-        <v>1.7000000000000001E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="I6" s="18">
-        <v>0.03</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="J6" s="19">
-        <v>2.3E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="K6" s="10">
-        <v>3.9E-2</v>
+        <v>0.01</v>
       </c>
       <c r="L6" s="10">
-        <v>3.4000000000000002E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="U6" s="11">
         <v>4</v>
       </c>
       <c r="V6" s="14">
-        <v>0.25900000000000001</v>
+        <v>0.218</v>
       </c>
       <c r="W6" s="15">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="X6" s="18">
-        <v>0.19600000000000001</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="Y6" s="19">
-        <v>8.1000000000000003E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="Z6" s="18">
-        <v>0.14899999999999999</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="AA6" s="19">
-        <v>8.3000000000000004E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="AB6" s="18">
-        <v>0.14000000000000001</v>
+        <v>6.3E-2</v>
       </c>
       <c r="AC6" s="19">
-        <v>0.114</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="AD6" s="10">
-        <v>0.17699999999999999</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="AE6" s="10">
-        <v>0.16900000000000001</v>
+        <v>2.7E-2</v>
       </c>
       <c r="AM6" s="11">
         <v>4</v>
       </c>
       <c r="AN6" s="14">
-        <v>2.2589999999999999</v>
+        <v>1.9530000000000001</v>
       </c>
       <c r="AO6" s="15">
-        <v>0.82499999999999996</v>
+        <v>0.67700000000000005</v>
       </c>
       <c r="AP6" s="18">
-        <v>1.482</v>
+        <v>1.208</v>
       </c>
       <c r="AQ6" s="19">
-        <v>0.72299999999999998</v>
+        <v>0.44600000000000001</v>
       </c>
       <c r="AR6" s="18">
-        <v>1.3460000000000001</v>
+        <v>0.93300000000000005</v>
       </c>
       <c r="AS6" s="19">
-        <v>0.72699999999999998</v>
+        <v>0.40699999999999997</v>
       </c>
       <c r="AT6" s="18">
-        <v>1.298</v>
+        <v>0.59199999999999997</v>
       </c>
       <c r="AU6" s="19">
-        <v>1.046</v>
+        <v>0.33800000000000002</v>
       </c>
       <c r="AV6" s="10">
-        <v>1.744</v>
+        <v>0.48499999999999999</v>
       </c>
       <c r="AW6" s="10">
-        <v>1.52</v>
+        <v>0.29599999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.25">
@@ -6557,101 +6557,101 @@
         <v>5</v>
       </c>
       <c r="C7" s="14">
-        <v>5.3999999999999999E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="D7" s="15">
-        <v>1.6E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="E7" s="18">
-        <v>3.1E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="F7" s="19">
+        <v>0.01</v>
+      </c>
+      <c r="G7" s="18">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="H7" s="19">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I7" s="18">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G7" s="18">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="H7" s="19">
-        <v>1.6E-2</v>
-      </c>
-      <c r="I7" s="18">
-        <v>2.8000000000000001E-2</v>
-      </c>
       <c r="J7" s="19">
-        <v>2.1000000000000001E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="K7" s="10">
-        <v>3.6999999999999998E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="L7" s="9">
-        <v>3.5999999999999997E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="M7" s="6"/>
       <c r="U7" s="11">
         <v>5</v>
       </c>
       <c r="V7" s="14">
-        <v>0.26</v>
+        <v>0.216</v>
       </c>
       <c r="W7" s="15">
-        <v>8.8999999999999996E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="X7" s="18">
-        <v>0.159</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="Y7" s="19">
-        <v>8.4000000000000005E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="Z7" s="18">
-        <v>0.13800000000000001</v>
+        <v>9.4E-2</v>
       </c>
       <c r="AA7" s="19">
-        <v>8.4000000000000005E-2</v>
+        <v>0.04</v>
       </c>
       <c r="AB7" s="18">
-        <v>0.157</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="AC7" s="19">
-        <v>0.113</v>
+        <v>3.1E-2</v>
       </c>
       <c r="AD7" s="10">
-        <v>0.188</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="AE7" s="9">
-        <v>0.18099999999999999</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="AM7" s="11">
         <v>5</v>
       </c>
       <c r="AN7" s="14">
-        <v>2.278</v>
+        <v>1.919</v>
       </c>
       <c r="AO7" s="15">
-        <v>0.76600000000000001</v>
+        <v>0.66900000000000004</v>
       </c>
       <c r="AP7" s="18">
-        <v>1.4039999999999999</v>
+        <v>1.1160000000000001</v>
       </c>
       <c r="AQ7" s="19">
-        <v>0.69199999999999995</v>
+        <v>0.498</v>
       </c>
       <c r="AR7" s="18">
-        <v>1.345</v>
+        <v>0.91700000000000004</v>
       </c>
       <c r="AS7" s="19">
-        <v>0.755</v>
+        <v>0.36599999999999999</v>
       </c>
       <c r="AT7" s="18">
-        <v>1.3380000000000001</v>
+        <v>0.70099999999999996</v>
       </c>
       <c r="AU7" s="19">
-        <v>1.0129999999999999</v>
+        <v>0.31900000000000001</v>
       </c>
       <c r="AV7" s="10">
-        <v>1.619</v>
+        <v>0.47299999999999998</v>
       </c>
       <c r="AW7" s="9">
-        <v>1.6040000000000001</v>
+        <v>0.32300000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.25">
@@ -6659,101 +6659,101 @@
         <v>6</v>
       </c>
       <c r="C8" s="14">
-        <v>5.6000000000000001E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="D8" s="15">
-        <v>2.1000000000000001E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="E8" s="18">
-        <v>3.5000000000000003E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="F8" s="19">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="G8" s="18">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="H8" s="19">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="I8" s="18">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="G8" s="18">
-        <v>2.7E-2</v>
-      </c>
-      <c r="H8" s="19">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="I8" s="18">
-        <v>2.7E-2</v>
-      </c>
       <c r="J8" s="19">
-        <v>2.4E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="K8" s="10">
-        <v>4.1000000000000002E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="L8" s="9">
-        <v>3.7999999999999999E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="M8" s="8"/>
       <c r="U8" s="11">
         <v>6</v>
       </c>
       <c r="V8" s="14">
-        <v>0.26</v>
+        <v>0.21299999999999999</v>
       </c>
       <c r="W8" s="15">
-        <v>8.6999999999999994E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="X8" s="18">
-        <v>0.16600000000000001</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="Y8" s="19">
-        <v>7.6999999999999999E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="Z8" s="18">
-        <v>0.14699999999999999</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="AA8" s="19">
-        <v>7.4999999999999997E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="AB8" s="18">
-        <v>0.14199999999999999</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="AC8" s="19">
-        <v>0.114</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="AD8" s="10">
-        <v>0.17699999999999999</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="AE8" s="9">
-        <v>0.17</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="AM8" s="11">
         <v>6</v>
       </c>
       <c r="AN8" s="14">
-        <v>2.2959999999999998</v>
+        <v>1.9470000000000001</v>
       </c>
       <c r="AO8" s="15">
-        <v>0.81200000000000006</v>
+        <v>0.65</v>
       </c>
       <c r="AP8" s="18">
-        <v>1.462</v>
+        <v>1.147</v>
       </c>
       <c r="AQ8" s="19">
-        <v>0.69299999999999995</v>
+        <v>0.47199999999999998</v>
       </c>
       <c r="AR8" s="18">
-        <v>1.381</v>
+        <v>0.9</v>
       </c>
       <c r="AS8" s="19">
-        <v>0.76200000000000001</v>
+        <v>0.40400000000000003</v>
       </c>
       <c r="AT8" s="18">
-        <v>1.286</v>
+        <v>0.62</v>
       </c>
       <c r="AU8" s="19">
-        <v>1.022</v>
+        <v>0.34200000000000003</v>
       </c>
       <c r="AV8" s="10">
-        <v>1.8280000000000001</v>
+        <v>0.47899999999999998</v>
       </c>
       <c r="AW8" s="9">
-        <v>1.611</v>
+        <v>0.27300000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.25">
@@ -6761,101 +6761,101 @@
         <v>7</v>
       </c>
       <c r="C9" s="14">
-        <v>5.0999999999999997E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="D9" s="15">
-        <v>1.6E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="E9" s="18">
-        <v>3.6999999999999998E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="F9" s="19">
+        <v>0.01</v>
+      </c>
+      <c r="G9" s="18">
+        <v>1.9E-2</v>
+      </c>
+      <c r="H9" s="19">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="I9" s="18">
         <v>1.4E-2</v>
       </c>
-      <c r="G9" s="18">
-        <v>0.03</v>
-      </c>
-      <c r="H9" s="19">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="I9" s="18">
-        <v>2.9000000000000001E-2</v>
-      </c>
       <c r="J9" s="19">
-        <v>2.1999999999999999E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="K9" s="10">
-        <v>3.4000000000000002E-2</v>
+        <v>0.01</v>
       </c>
       <c r="L9" s="9">
-        <v>3.5999999999999997E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="M9" s="7"/>
       <c r="U9" s="11">
         <v>7</v>
       </c>
       <c r="V9" s="14">
-        <v>0.25700000000000001</v>
+        <v>0.216</v>
       </c>
       <c r="W9" s="15">
-        <v>8.8999999999999996E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="X9" s="18">
-        <v>0.17100000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="Y9" s="19">
-        <v>7.3999999999999996E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="Z9" s="18">
-        <v>0.16300000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="AA9" s="19">
-        <v>7.5999999999999998E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="AB9" s="18">
-        <v>0.156</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="AC9" s="19">
-        <v>0.11700000000000001</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="AD9" s="10">
-        <v>0.182</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="AE9" s="9">
-        <v>0.17599999999999999</v>
+        <v>0.03</v>
       </c>
       <c r="AM9" s="11">
         <v>7</v>
       </c>
       <c r="AN9" s="14">
-        <v>2.3029999999999999</v>
+        <v>1.891</v>
       </c>
       <c r="AO9" s="15">
-        <v>0.76100000000000001</v>
+        <v>0.66600000000000004</v>
       </c>
       <c r="AP9" s="18">
-        <v>1.4930000000000001</v>
+        <v>1.1559999999999999</v>
       </c>
       <c r="AQ9" s="19">
-        <v>0.71699999999999997</v>
+        <v>0.45900000000000002</v>
       </c>
       <c r="AR9" s="18">
-        <v>1.298</v>
+        <v>0.871</v>
       </c>
       <c r="AS9" s="19">
-        <v>0.749</v>
+        <v>0.377</v>
       </c>
       <c r="AT9" s="18">
-        <v>1.3360000000000001</v>
+        <v>0.748</v>
       </c>
       <c r="AU9" s="19">
-        <v>1.125</v>
+        <v>0.33100000000000002</v>
       </c>
       <c r="AV9" s="10">
-        <v>1.569</v>
+        <v>0.46899999999999997</v>
       </c>
       <c r="AW9" s="9">
-        <v>1.58</v>
+        <v>0.313</v>
       </c>
     </row>
     <row r="10" spans="1:51" x14ac:dyDescent="0.25">
@@ -6863,101 +6863,101 @@
         <v>8</v>
       </c>
       <c r="C10" s="14">
-        <v>5.5E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="D10" s="15">
-        <v>1.4999999999999999E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="E10" s="18">
-        <v>3.7999999999999999E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="F10" s="19">
-        <v>1.4999999999999999E-2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="G10" s="18">
-        <v>2.5999999999999999E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="H10" s="19">
-        <v>1.6E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="I10" s="18">
-        <v>2.8000000000000001E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="J10" s="19">
-        <v>2.1000000000000001E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="K10" s="10">
-        <v>3.5000000000000003E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="L10" s="10">
-        <v>3.6999999999999998E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="M10" s="5"/>
       <c r="U10" s="11">
         <v>8</v>
       </c>
       <c r="V10" s="14">
-        <v>0.27400000000000002</v>
+        <v>0.215</v>
       </c>
       <c r="W10" s="15">
+        <v>6.3E-2</v>
+      </c>
+      <c r="X10" s="18">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="Y10" s="19">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="Z10" s="18">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="X10" s="18">
-        <v>0.16900000000000001</v>
-      </c>
-      <c r="Y10" s="19">
-        <v>7.8E-2</v>
-      </c>
-      <c r="Z10" s="18">
-        <v>0.14000000000000001</v>
-      </c>
       <c r="AA10" s="19">
-        <v>7.6999999999999999E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="AB10" s="18">
-        <v>0.14699999999999999</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="AC10" s="19">
-        <v>0.123</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="AD10" s="10">
-        <v>0.19</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="AE10" s="10">
-        <v>0.17399999999999999</v>
+        <v>0.03</v>
       </c>
       <c r="AM10" s="11">
         <v>8</v>
       </c>
       <c r="AN10" s="14">
-        <v>2.3420000000000001</v>
+        <v>1.9370000000000001</v>
       </c>
       <c r="AO10" s="15">
-        <v>0.78500000000000003</v>
+        <v>0.64300000000000002</v>
       </c>
       <c r="AP10" s="18">
-        <v>1.431</v>
+        <v>1.236</v>
       </c>
       <c r="AQ10" s="19">
-        <v>0.72499999999999998</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="AR10" s="18">
-        <v>1.3620000000000001</v>
+        <v>0.873</v>
       </c>
       <c r="AS10" s="19">
-        <v>0.74399999999999999</v>
+        <v>0.38700000000000001</v>
       </c>
       <c r="AT10" s="18">
-        <v>1.258</v>
+        <v>0.60499999999999998</v>
       </c>
       <c r="AU10" s="19">
-        <v>1.0429999999999999</v>
+        <v>0.41199999999999998</v>
       </c>
       <c r="AV10" s="10">
-        <v>1.702</v>
+        <v>0.502</v>
       </c>
       <c r="AW10" s="10">
-        <v>1.5189999999999999</v>
+        <v>0.29899999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:51" x14ac:dyDescent="0.25">
@@ -6965,100 +6965,100 @@
         <v>9</v>
       </c>
       <c r="C11" s="14">
-        <v>5.2999999999999999E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="D11" s="15">
-        <v>1.7000000000000001E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="E11" s="18">
-        <v>3.9E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="F11" s="19">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="G11" s="18">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="H11" s="19">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I11" s="18">
         <v>1.4E-2</v>
       </c>
-      <c r="G11" s="18">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="H11" s="19">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="I11" s="18">
-        <v>2.8000000000000001E-2</v>
-      </c>
       <c r="J11" s="19">
-        <v>2.4E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="K11" s="10">
-        <v>3.4000000000000002E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="L11" s="10">
-        <v>3.4000000000000002E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="U11" s="11">
         <v>9</v>
       </c>
       <c r="V11" s="14">
-        <v>0.24199999999999999</v>
+        <v>0.21299999999999999</v>
       </c>
       <c r="W11" s="15">
-        <v>8.2000000000000003E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="X11" s="18">
-        <v>0.17199999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="Y11" s="19">
-        <v>7.9000000000000001E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="Z11" s="18">
-        <v>0.155</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="AA11" s="19">
-        <v>8.5999999999999993E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="AB11" s="18">
-        <v>0.157</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="AC11" s="19">
-        <v>0.122</v>
+        <v>3.1E-2</v>
       </c>
       <c r="AD11" s="10">
-        <v>0.19700000000000001</v>
+        <v>5.5E-2</v>
       </c>
       <c r="AE11" s="10">
-        <v>0.16900000000000001</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="AM11" s="11">
         <v>9</v>
       </c>
       <c r="AN11" s="14">
-        <v>2.484</v>
+        <v>1.9790000000000001</v>
       </c>
       <c r="AO11" s="15">
-        <v>0.77800000000000002</v>
+        <v>0.64800000000000002</v>
       </c>
       <c r="AP11" s="18">
-        <v>1.4910000000000001</v>
+        <v>1.198</v>
       </c>
       <c r="AQ11" s="19">
-        <v>0.69599999999999995</v>
+        <v>0.435</v>
       </c>
       <c r="AR11" s="18">
-        <v>1.5469999999999999</v>
+        <v>0.91900000000000004</v>
       </c>
       <c r="AS11" s="19">
-        <v>0.755</v>
+        <v>0.38100000000000001</v>
       </c>
       <c r="AT11" s="18">
-        <v>1.3260000000000001</v>
+        <v>0.61799999999999999</v>
       </c>
       <c r="AU11" s="19">
-        <v>1.077</v>
+        <v>0.30199999999999999</v>
       </c>
       <c r="AV11" s="10">
-        <v>1.605</v>
+        <v>0.47199999999999998</v>
       </c>
       <c r="AW11" s="10">
-        <v>1.63</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="12" spans="1:51" x14ac:dyDescent="0.25">
@@ -7066,244 +7066,238 @@
         <v>10</v>
       </c>
       <c r="C12" s="14">
-        <v>5.3999999999999999E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="D12" s="15">
-        <v>1.6E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="E12" s="18">
-        <v>3.5000000000000003E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="F12" s="19">
-        <v>1.6E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="G12" s="18">
-        <v>2.5999999999999999E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="H12" s="19">
-        <v>1.7000000000000001E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="I12" s="18">
-        <v>2.8000000000000001E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="J12" s="19">
-        <v>2.1000000000000001E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="K12" s="10">
-        <v>3.6999999999999998E-2</v>
+        <v>0.01</v>
       </c>
       <c r="L12" s="10">
-        <v>3.6999999999999998E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="U12" s="11">
         <v>10</v>
       </c>
       <c r="V12" s="14">
-        <v>0.255</v>
+        <v>0.218</v>
       </c>
       <c r="W12" s="15">
-        <v>8.5999999999999993E-2</v>
+        <v>6.3E-2</v>
       </c>
       <c r="X12" s="18">
-        <v>0.16900000000000001</v>
+        <v>0.129</v>
       </c>
       <c r="Y12" s="19">
-        <v>7.3999999999999996E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="Z12" s="18">
-        <v>0.13900000000000001</v>
+        <v>9.4E-2</v>
       </c>
       <c r="AA12" s="19">
-        <v>8.7999999999999995E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="AB12" s="18">
-        <v>0.153</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="AC12" s="19">
-        <v>0.125</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="AD12" s="10">
-        <v>0.17699999999999999</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="AE12" s="10">
-        <v>0.18099999999999999</v>
+        <v>2.7E-2</v>
       </c>
       <c r="AM12" s="11">
         <v>10</v>
       </c>
       <c r="AN12" s="14">
-        <v>2.2170000000000001</v>
+        <v>1.9419999999999999</v>
       </c>
       <c r="AO12" s="15">
-        <v>0.73099999999999998</v>
+        <v>0.68200000000000005</v>
       </c>
       <c r="AP12" s="18">
-        <v>1.5</v>
+        <v>1.226</v>
       </c>
       <c r="AQ12" s="19">
-        <v>0.70099999999999996</v>
+        <v>0.438</v>
       </c>
       <c r="AR12" s="18">
-        <v>1.569</v>
+        <v>0.90600000000000003</v>
       </c>
       <c r="AS12" s="19">
-        <v>0.71799999999999997</v>
+        <v>0.40600000000000003</v>
       </c>
       <c r="AT12" s="18">
-        <v>1.272</v>
+        <v>0.57399999999999995</v>
       </c>
       <c r="AU12" s="19">
-        <v>1.0129999999999999</v>
+        <v>0.34300000000000003</v>
       </c>
       <c r="AV12" s="10">
-        <v>1.577</v>
+        <v>0.49</v>
       </c>
       <c r="AW12" s="10">
-        <v>1.5429999999999999</v>
+        <v>0.27700000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="22"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="16">
         <f>ROUND(AVERAGE(C3:C12), 3)</f>
-        <v>5.7000000000000002E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="D13" s="16">
         <f t="shared" ref="D13:L13" si="0">ROUND(AVERAGE(D3:D12), 3)</f>
-        <v>1.7999999999999999E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="E13" s="16">
         <f t="shared" si="0"/>
-        <v>3.5999999999999997E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="F13" s="16">
         <f t="shared" si="0"/>
-        <v>1.4999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="G13" s="16">
         <f t="shared" si="0"/>
-        <v>2.8000000000000001E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="H13" s="16">
         <f t="shared" si="0"/>
-        <v>1.7000000000000001E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="I13" s="16">
         <f t="shared" si="0"/>
-        <v>2.9000000000000001E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="J13" s="16">
         <f t="shared" si="0"/>
-        <v>2.4E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="K13" s="16">
         <f t="shared" si="0"/>
-        <v>3.6999999999999998E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="L13" s="16">
         <f t="shared" si="0"/>
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="T13" s="22" t="s">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="T13" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="U13" s="22"/>
+      <c r="U13" s="23"/>
       <c r="V13" s="16">
         <f>ROUND(AVERAGE(V3:V12), 3)</f>
-        <v>0.27200000000000002</v>
+        <v>0.219</v>
       </c>
       <c r="W13" s="16">
         <f t="shared" ref="W13:AE13" si="1">ROUND(AVERAGE(W3:W12), 3)</f>
-        <v>8.7999999999999995E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="X13" s="16">
         <f t="shared" si="1"/>
-        <v>0.17399999999999999</v>
+        <v>0.126</v>
       </c>
       <c r="Y13" s="16">
         <f t="shared" si="1"/>
-        <v>7.9000000000000001E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="Z13" s="16">
         <f t="shared" si="1"/>
-        <v>0.14899999999999999</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="AA13" s="16">
         <f t="shared" si="1"/>
-        <v>8.2000000000000003E-2</v>
+        <v>0.04</v>
       </c>
       <c r="AB13" s="16">
         <f t="shared" si="1"/>
-        <v>0.151</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AC13" s="16">
         <f t="shared" si="1"/>
-        <v>0.122</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="AD13" s="16">
         <f t="shared" si="1"/>
-        <v>0.189</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="AE13" s="16">
         <f t="shared" si="1"/>
-        <v>0.17599999999999999</v>
-      </c>
-      <c r="AL13" s="22" t="s">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="AL13" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="AM13" s="22"/>
+      <c r="AM13" s="23"/>
       <c r="AN13" s="16">
         <f>ROUND(AVERAGE(AN3:AN12), 3)</f>
-        <v>2.3069999999999999</v>
+        <v>1.944</v>
       </c>
       <c r="AO13" s="16">
         <f t="shared" ref="AO13:AW13" si="2">ROUND(AVERAGE(AO3:AO12), 3)</f>
-        <v>0.78200000000000003</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="AP13" s="16">
         <f t="shared" si="2"/>
-        <v>1.474</v>
+        <v>1.1739999999999999</v>
       </c>
       <c r="AQ13" s="16">
         <f t="shared" si="2"/>
-        <v>0.71499999999999997</v>
+        <v>0.45700000000000002</v>
       </c>
       <c r="AR13" s="16">
         <f t="shared" si="2"/>
-        <v>1.381</v>
+        <v>0.91</v>
       </c>
       <c r="AS13" s="16">
         <f t="shared" si="2"/>
-        <v>0.75</v>
+        <v>0.38700000000000001</v>
       </c>
       <c r="AT13" s="16">
         <f t="shared" si="2"/>
-        <v>1.3009999999999999</v>
+        <v>0.628</v>
       </c>
       <c r="AU13" s="16">
         <f t="shared" si="2"/>
-        <v>1.0509999999999999</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="AV13" s="16">
         <f t="shared" si="2"/>
-        <v>1.6639999999999999</v>
+        <v>0.49</v>
       </c>
       <c r="AW13" s="16">
         <f t="shared" si="2"/>
-        <v>1.57</v>
+        <v>0.29299999999999998</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
     <mergeCell ref="AV1:AW1"/>
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="AB1:AC1"/>
@@ -7316,6 +7310,12 @@
     <mergeCell ref="AP1:AQ1"/>
     <mergeCell ref="AR1:AS1"/>
     <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
